--- a/Data/processed/segunda_aplicacion/indicadores_psicometricos.xlsx
+++ b/Data/processed/segunda_aplicacion/indicadores_psicometricos.xlsx
@@ -534,10 +534,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9078156312625251</v>
+        <v>0.905587668593449</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25903614457831325</v>
+        <v>0.2658959537572254</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8957915831663327</v>
+        <v>0.8959537572254336</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29518072289156627</v>
+        <v>0.2947976878612717</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8216432865731463</v>
+        <v>0.8227360308285164</v>
       </c>
       <c r="B16" t="n">
-        <v>0.41566265060240964</v>
+        <v>0.42196531791907516</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8717434869739479</v>
+        <v>0.8709055876685935</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3253012048192771</v>
+        <v>0.3352601156069364</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8937875751503006</v>
+        <v>0.8978805394990366</v>
       </c>
       <c r="B18" t="n">
-        <v>0.29518072289156627</v>
+        <v>0.2832369942196532</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8637274549098196</v>
+        <v>0.8631984585741811</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.3699421965317919</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7595190380761523</v>
+        <v>0.7630057803468208</v>
       </c>
       <c r="B20" t="n">
-        <v>0.608433734939759</v>
+        <v>0.6011560693641619</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7555110220440882</v>
+        <v>0.7630057803468208</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6626506024096386</v>
+        <v>0.6416184971098265</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7595190380761523</v>
+        <v>0.766859344894027</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6385542168674698</v>
+        <v>0.6127167630057804</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.845691382765531</v>
+        <v>0.8477842003853564</v>
       </c>
       <c r="B23" t="n">
-        <v>0.42771084337349397</v>
+        <v>0.42196531791907516</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8897795591182365</v>
+        <v>0.8921001926782274</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3072289156626506</v>
+        <v>0.30057803468208094</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8977955911823647</v>
+        <v>0.8978805394990366</v>
       </c>
       <c r="B25" t="n">
-        <v>0.27710843373493976</v>
+        <v>0.2774566473988439</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8663003663003663</v>
       </c>
       <c r="B38" t="n">
-        <v>0.39444444444444443</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9203703703703704</v>
+        <v>0.9212454212454212</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.23626373626373626</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8722222222222222</v>
+        <v>0.8736263736263736</v>
       </c>
       <c r="B40" t="n">
-        <v>0.38333333333333336</v>
+        <v>0.3791208791208791</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9296296296296296</v>
+        <v>0.9304029304029304</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9351851851851852</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="B42" t="n">
-        <v>0.19444444444444445</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9055555555555556</v>
+        <v>0.9065934065934066</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2802197802197802</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.11296296296296296</v>
+        <v>0.11172161172161173</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.13333333333333333</v>
+        <v>-0.13186813186813187</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9084249084249084</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25</v>
+        <v>0.24725274725274726</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8962962962962963</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8851851851851852</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.3131868131868132</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9388888888888889</v>
+        <v>0.9395604395604396</v>
       </c>
       <c r="B48" t="n">
-        <v>0.18333333333333332</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9120879120879121</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2611111111111111</v>
+        <v>0.25824175824175827</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1041,7 +1041,7 @@
         <v>0.8726457399103139</v>
       </c>
       <c r="B50" t="n">
-        <v>0.20215633423180593</v>
+        <v>0.2884097035040431</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.09955156950672646</v>
+        <v>0.8887892376681614</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09973045822102426</v>
+        <v>0.2749326145552561</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>0.8215246636771301</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20215633423180593</v>
+        <v>0.3908355795148248</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -1083,7 +1083,7 @@
         <v>0.852914798206278</v>
       </c>
       <c r="B53" t="n">
-        <v>0.18328840970350405</v>
+        <v>0.31536388140161725</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.07892376681614349</v>
+        <v>0.9112107623318386</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.2210242587601078</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.18026905829596412</v>
+        <v>0.8080717488789237</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2722371967654987</v>
+        <v>0.38274932614555257</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         <v>0.6762331838565022</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2668463611859838</v>
+        <v>0.5525606469002695</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1139,7 +1139,7 @@
         <v>0.054708520179372194</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08355795148247978</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -1153,7 +1153,7 @@
         <v>0.24484304932735426</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2722371967654987</v>
+        <v>0.013477088948787063</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1167,7 +1167,7 @@
         <v>0.6260089686098654</v>
       </c>
       <c r="B59" t="n">
-        <v>0.48517520215633425</v>
+        <v>0.4501347708894879</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.861811391223156</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29310344827586204</v>
+        <v>0.3277310924369748</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.23946360153256704</v>
+        <v>0.7469654528478058</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.017241379310344827</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.7432306255835668</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4511494252873563</v>
+        <v>0.4369747899159664</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8687739463601533</v>
+        <v>0.8711484593837535</v>
       </c>
       <c r="B63" t="n">
-        <v>0.27586206896551724</v>
+        <v>0.31092436974789917</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.20881226053639848</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08045977011494253</v>
+        <v>0.4341736694677871</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.13409961685823754</v>
+        <v>0.8534080298786181</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02586206896551724</v>
+        <v>0.33053221288515405</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8764367816091954</v>
+        <v>0.8786181139122315</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2614942528735632</v>
+        <v>0.31092436974789917</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8390804597701149</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3045977011494253</v>
+        <v>0.36694677871148457</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5737547892720306</v>
+        <v>0.5723622782446312</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514367816091954</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6417624521072797</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="B69" t="n">
-        <v>0.49137931034482757</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8409961685823755</v>
+        <v>0.842203548085901</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3585434173669468</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7394636015325671</v>
+        <v>0.7394957983193278</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4885057471264368</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7720306513409961</v>
+        <v>0.7749766573295985</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4885057471264368</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6810344827586207</v>
+        <v>0.6834733893557423</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5316091954022989</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7759103641456583</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4540229885057471</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6791187739463601</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.6563958916900093</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6408045977011494</v>
+        <v>0.6358543417366946</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6982758620689655</v>
+        <v>0.6965452847805789</v>
       </c>
       <c r="B93" t="n">
-        <v>0.47413793103448276</v>
+        <v>0.4677871148459384</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.85727969348659</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5038314176245211</v>
+        <v>0.5032679738562091</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4481792717086835</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.5574712643678161</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6522988505747126</v>
+        <v>0.6498599439775911</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.5977011494252874</v>
+        <v>0.5994397759103641</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5890804597701149</v>
+        <v>0.5854341736694678</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6408045977011494</v>
+        <v>0.642390289449113</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5854341736694678</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7863984674329502</v>
+        <v>0.7871148459383753</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4281609195402299</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6937441643323996</v>
       </c>
       <c r="B100" t="n">
-        <v>0.47988505747126436</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7825670498084292</v>
+        <v>0.7871148459383753</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.38375350140056025</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.9473180076628352</v>
+        <v>0.9477124183006536</v>
       </c>
       <c r="B108" t="n">
-        <v>0.16379310344827586</v>
+        <v>0.16246498599439776</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8026819923371648</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5919540229885057</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8726053639846744</v>
+        <v>0.8748832866479925</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3764367816091954</v>
+        <v>0.3697478991596639</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8409961685823755</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="B111" t="n">
-        <v>0.39655172413793105</v>
+        <v>0.39775910364145656</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7720306513409961</v>
+        <v>0.7712418300653595</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5660919540229885</v>
+        <v>0.5574229691876751</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.8007662835249042</v>
+        <v>0.7973856209150327</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5086206896551724</v>
+        <v>0.5154061624649859</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.9177033492822967</v>
+        <v>0.9188432835820896</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2471264367816092</v>
+        <v>0.24369747899159663</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8937799043062201</v>
+        <v>0.8917910447761194</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31896551724137934</v>
+        <v>0.32492997198879553</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.8679425837320575</v>
+        <v>0.8675373134328358</v>
       </c>
       <c r="B126" t="n">
-        <v>0.39655172413793105</v>
+        <v>0.39775910364145656</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.8740671641791045</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.37815126050420167</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8832535885167464</v>
+        <v>0.8815298507462687</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3505747126436782</v>
+        <v>0.3557422969187675</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8794258373205741</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3585434173669468</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8708133971291866</v>
+        <v>0.871268656716418</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8746411483253589</v>
+        <v>0.8759328358208955</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3764367816091954</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8832535885167464</v>
+        <v>0.8843283582089553</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3505747126436782</v>
+        <v>0.3473389355742297</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8650717703349282</v>
+        <v>0.8647388059701493</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4051724137931034</v>
+        <v>0.4061624649859944</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8478468899521531</v>
+        <v>0.8498134328358209</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4511494252873563</v>
+        <v>0.44537815126050423</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.8985645933014355</v>
+        <v>0.9001865671641791</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3017241379310345</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8698564593301435</v>
+        <v>0.8684701492537313</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.38935574229691877</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8382775119617225</v>
+        <v>0.8386194029850746</v>
       </c>
       <c r="B147" t="n">
-        <v>0.47988505747126436</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="C147" t="s">
         <v>21</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.875</v>
       </c>
       <c r="B148" t="n">
-        <v>0.382183908045977</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C148" t="s">
         <v>21</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8430622009569378</v>
+        <v>0.8423507462686567</v>
       </c>
       <c r="B149" t="n">
-        <v>0.46839080459770116</v>
+        <v>0.4677871148459384</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.830622009569378</v>
+        <v>0.8311567164179104</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.8688995215311005</v>
+        <v>0.8694029850746269</v>
       </c>
       <c r="B151" t="n">
-        <v>0.39080459770114945</v>
+        <v>0.38935574229691877</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8423507462686567</v>
       </c>
       <c r="B152" t="n">
-        <v>0.46839080459770116</v>
+        <v>0.4677871148459384</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.8488038277511962</v>
+        <v>0.8479477611940298</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4481792717086835</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.9030303030303031</v>
+        <v>0.9044334975369458</v>
       </c>
       <c r="B163" t="n">
-        <v>0.23939393939393938</v>
+        <v>0.23668639053254437</v>
       </c>
       <c r="C163" t="s">
         <v>23</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.21818181818181817</v>
+        <v>0.22167487684729065</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2818181818181818</v>
+        <v>0.2869822485207101</v>
       </c>
       <c r="C164" t="s">
         <v>23</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.9363636363636364</v>
+        <v>0.9379310344827586</v>
       </c>
       <c r="B165" t="n">
-        <v>0.17272727272727273</v>
+        <v>0.16863905325443787</v>
       </c>
       <c r="C165" t="s">
         <v>23</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.734975369458128</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4818181818181818</v>
+        <v>0.47928994082840237</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7808080808080808</v>
+        <v>0.7783251231527094</v>
       </c>
       <c r="B167" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.4556213017751479</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.8532019704433498</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3212121212121212</v>
+        <v>0.3254437869822485</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.9251231527093596</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2</v>
+        <v>0.19822485207100593</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8919191919191919</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="B170" t="n">
-        <v>0.296969696969697</v>
+        <v>0.2988165680473373</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7888888888888889</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4636363636363636</v>
+        <v>0.45857988165680474</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
